--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1337088.752681199</v>
+        <v>1388591.996414434</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13228832.04867467</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1852030.743161947</v>
+        <v>612367.9462114761</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7144322.778074792</v>
+        <v>7580707.959517173</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>285.4023853522781</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -668,10 +670,10 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>111.0886647562713</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -829,10 +831,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -874,13 +876,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>71.762932005133</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>131.5929710123932</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>259.7676441774644</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>81.48697791125824</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>64.38419946122416</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>99.52822527808995</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>173.5406636191337</v>
+        <v>22.51978202893086</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1345,10 +1347,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>264.6442222336264</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1357,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>36.01768068188228</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1376,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>420.872939992494</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>174.3907297104545</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>103.149878103475</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>98.15366458399285</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1613,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U14" t="n">
-        <v>151.4631403546292</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.0090575327999</v>
       </c>
       <c r="W16" t="n">
-        <v>188.9841510855089</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1859,10 +1861,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396359</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458133</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -1907,7 +1909,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439306</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>17.50393454862603</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>268.5317954510008</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2068,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V20" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>86.95301470814802</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2299,7 +2301,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2476,7 +2478,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2485,10 +2487,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>110.6104701467503</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2539,7 +2541,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>86.66428804999369</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2716,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>57.24387488545715</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,16 +2772,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>62.85375201890571</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2965,10 +2967,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>123.9086344760396</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>128.8897627160344</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3190,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>32.25669190862082</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>32.10691306471451</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,10 +3240,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3253,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3277,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
@@ -3424,25 +3426,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>198.8095683490267</v>
       </c>
       <c r="V37" t="n">
-        <v>243.2589438404931</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3508,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3664,16 +3666,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>134.6470835535025</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3743,13 +3745,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -3758,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>140.1162821394849</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3901,19 +3903,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3961,10 +3963,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>63.85527922693701</v>
+        <v>47.21500088000342</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>202.6197307551458</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4138,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>8.209635605838066</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>8.209635605837729</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>387.7684189170776</v>
+        <v>932.2144580460986</v>
       </c>
       <c r="C2" t="n">
-        <v>99.48318118750379</v>
+        <v>909.3541320998028</v>
       </c>
       <c r="D2" t="n">
-        <v>80.23096441290814</v>
+        <v>890.1019153252071</v>
       </c>
       <c r="E2" t="n">
-        <v>58.29442860116974</v>
+        <v>868.1653795134687</v>
       </c>
       <c r="F2" t="n">
-        <v>37.21065083097405</v>
+        <v>443.0411977028689</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082674</v>
+        <v>401.305594109213</v>
       </c>
       <c r="L2" t="n">
-        <v>357.6855680512415</v>
+        <v>401.305594109213</v>
       </c>
       <c r="M2" t="n">
-        <v>814.4714747539724</v>
+        <v>880.2445183516422</v>
       </c>
       <c r="N2" t="n">
-        <v>1271.257381456703</v>
+        <v>1359.183442594071</v>
       </c>
       <c r="O2" t="n">
-        <v>1271.257381456703</v>
+        <v>1838.122366836501</v>
       </c>
       <c r="P2" t="n">
-        <v>1728.043288159434</v>
+        <v>1838.122366836501</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1838.122366836501</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615875</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1830.739470489016</v>
       </c>
       <c r="T2" t="n">
-        <v>1624.67405208597</v>
+        <v>1718.528698007934</v>
       </c>
       <c r="U2" t="n">
-        <v>1624.67405208597</v>
+        <v>1718.528698007934</v>
       </c>
       <c r="V2" t="n">
-        <v>1624.67405208597</v>
+        <v>1361.039283134183</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.67405208597</v>
+        <v>1361.039283134183</v>
       </c>
       <c r="X2" t="n">
-        <v>1212.954053253717</v>
+        <v>1353.359688342334</v>
       </c>
       <c r="Y2" t="n">
-        <v>807.6167832086077</v>
+        <v>1352.062822337629</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237728</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412776</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565626</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000792</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9119924608267</v>
+        <v>46.14877825422935</v>
       </c>
       <c r="J3" t="n">
-        <v>308.6094817404178</v>
+        <v>46.14877825422935</v>
       </c>
       <c r="K3" t="n">
-        <v>308.6094817404178</v>
+        <v>46.14877825422935</v>
       </c>
       <c r="L3" t="n">
-        <v>308.6094817404178</v>
+        <v>46.14877825422935</v>
       </c>
       <c r="M3" t="n">
-        <v>308.6094817404178</v>
+        <v>343.3471304404866</v>
       </c>
       <c r="N3" t="n">
-        <v>765.3953884431487</v>
+        <v>822.2860546829157</v>
       </c>
       <c r="O3" t="n">
-        <v>1222.18129514588</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="P3" t="n">
-        <v>1678.967201848611</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.4455243905431</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438355</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>646.7231039142208</v>
+        <v>949.9106946954703</v>
       </c>
       <c r="C4" t="n">
-        <v>474.7505407931368</v>
+        <v>949.9106946954703</v>
       </c>
       <c r="D4" t="n">
-        <v>474.7505407931368</v>
+        <v>786.593921822241</v>
       </c>
       <c r="E4" t="n">
-        <v>308.5423349459903</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>136.6805607205508</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>136.6805607205508</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231751</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>96.19346351647553</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>322.7210647223127</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>520.4021181679248</v>
       </c>
       <c r="M4" t="n">
-        <v>1066.806038155494</v>
+        <v>911.5879131381755</v>
       </c>
       <c r="N4" t="n">
-        <v>1444.297549031529</v>
+        <v>1289.079424014211</v>
       </c>
       <c r="O4" t="n">
-        <v>1799.725677711293</v>
+        <v>1644.507552693975</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615875</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615875</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1888.068151303049</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.464575560472</v>
+        <v>1888.068151303049</v>
       </c>
       <c r="T4" t="n">
-        <v>1432.125227786372</v>
+        <v>1644.728803528948</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.940779286676</v>
+        <v>1364.544355029253</v>
       </c>
       <c r="V4" t="n">
-        <v>1151.940779286676</v>
+        <v>1082.832887637282</v>
       </c>
       <c r="W4" t="n">
-        <v>1079.452969180481</v>
+        <v>1082.832887637282</v>
       </c>
       <c r="X4" t="n">
-        <v>836.8890726262864</v>
+        <v>949.9106946954703</v>
       </c>
       <c r="Y4" t="n">
-        <v>836.8890726262864</v>
+        <v>949.9106946954703</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1012.734393912848</v>
+        <v>808.398248848074</v>
       </c>
       <c r="C5" t="n">
-        <v>989.8740679665526</v>
+        <v>546.0066890728574</v>
       </c>
       <c r="D5" t="n">
-        <v>970.6218511919569</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E5" t="n">
-        <v>544.6449113398145</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5207295292147</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>119.2220711590674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>36.91199246082674</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>357.6855680512415</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>814.4714747539724</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N5" t="n">
-        <v>1271.257381456703</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="O5" t="n">
-        <v>1728.043288159434</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P5" t="n">
-        <v>1728.043288159434</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041337</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X5" t="n">
-        <v>1837.920028249488</v>
+        <v>1229.54347914431</v>
       </c>
       <c r="Y5" t="n">
-        <v>1432.582758204378</v>
+        <v>824.2062090992</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.0561247023297</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>772.8420314050605</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>1229.627938107791</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>1229.627938107791</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
-        <v>1229.627938107791</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O6" t="n">
-        <v>1229.627938107791</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
-        <v>1686.413844810522</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956633</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>539.9446384577301</v>
+        <v>861.7025734666139</v>
       </c>
       <c r="C7" t="n">
-        <v>367.9720753366461</v>
+        <v>689.7300103455299</v>
       </c>
       <c r="D7" t="n">
-        <v>302.9375304263186</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="E7" t="n">
-        <v>302.9375304263186</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>302.9375304263186</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>136.6805607205508</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1444.297549031529</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1444.297549031529</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1734.89676095343</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1845.599623041337</v>
+        <v>2077.33907826259</v>
       </c>
       <c r="U7" t="n">
-        <v>1565.415174541641</v>
+        <v>2077.33907826259</v>
       </c>
       <c r="V7" t="n">
-        <v>1283.70370714967</v>
+        <v>1795.627610870619</v>
       </c>
       <c r="W7" t="n">
-        <v>1008.851303322183</v>
+        <v>1520.775207043132</v>
       </c>
       <c r="X7" t="n">
-        <v>766.287406767988</v>
+        <v>1278.211310488937</v>
       </c>
       <c r="Y7" t="n">
-        <v>539.9446384577301</v>
+        <v>1051.868542178679</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>709.2637433779112</v>
+        <v>1803.735481715043</v>
       </c>
       <c r="C8" t="n">
-        <v>686.4034174316154</v>
+        <v>1376.834751728343</v>
       </c>
       <c r="D8" t="n">
-        <v>667.1512006570197</v>
+        <v>953.5421309133435</v>
       </c>
       <c r="E8" t="n">
-        <v>645.2146648452813</v>
+        <v>527.5651910612011</v>
       </c>
       <c r="F8" t="n">
-        <v>624.1308870750855</v>
+        <v>102.4410092506013</v>
       </c>
       <c r="G8" t="n">
-        <v>219.7918246645341</v>
+        <v>102.142350880454</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>1508.432753835019</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>1556.689382596036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.689382596036</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4829,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1542.1289725064</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1542.1289725064</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X8" t="n">
-        <v>1534.449377714551</v>
+        <v>1820.840307970875</v>
       </c>
       <c r="Y8" t="n">
-        <v>1129.112107669441</v>
+        <v>1819.543441966169</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132769</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>1417.526784297715</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="M9" t="n">
-        <v>1417.526784297715</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="N9" t="n">
-        <v>1417.526784297715</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>789.4985786052539</v>
+        <v>648.7045319829699</v>
       </c>
       <c r="C10" t="n">
-        <v>789.4985786052539</v>
+        <v>476.7319688618859</v>
       </c>
       <c r="D10" t="n">
-        <v>626.1818057320246</v>
+        <v>476.7319688618859</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4993,19 +4995,19 @@
         <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1497.080847699001</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1497.080847699001</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1222.228443871514</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>979.6645473173196</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>979.6645473173196</v>
+        <v>648.7045319829699</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2508.597492233547</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2081.696762246847</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1658.404141431847</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.427201579705</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>807.3030197691047</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G11" t="n">
-        <v>402.9639573585533</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H11" t="n">
-        <v>105.0955788325882</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I11" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L11" t="n">
-        <v>938.9077138297941</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M11" t="n">
-        <v>1807.616720083529</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N11" t="n">
-        <v>2676.325726337263</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>3053.849899298786</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>3053.849899298786</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>3509.935378802969</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3509.935378802969</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3509.935378802969</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3509.935378802969</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3509.935378802969</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3509.935378802969</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>3509.935378802969</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>3333.783126570187</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2928.445856525077</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>637.3221986075146</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>519.8162951250193</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>415.9763366403044</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>311.2744029132416</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>217.6285725961458</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>123.5748008137498</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>70.19870757605938</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>341.8961968556505</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K12" t="n">
-        <v>932.3811234239901</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L12" t="n">
-        <v>1162.688621118071</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M12" t="n">
-        <v>1162.688621118071</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N12" t="n">
-        <v>1162.688621118071</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O12" t="n">
-        <v>1162.688621118071</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P12" t="n">
-        <v>1878.886338156569</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q12" t="n">
-        <v>1878.886338156569</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1797.562090717824</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1655.682155015502</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1470.913958935138</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1265.940820074405</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1069.419442907622</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>905.9420966742849</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>766.2492080275773</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>341.3163864385503</v>
+        <v>412.355951603442</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3438233174663</v>
+        <v>412.355951603442</v>
       </c>
       <c r="D13" t="n">
-        <v>169.3438233174663</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E13" t="n">
-        <v>169.3438233174663</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F13" t="n">
-        <v>70.19870757605938</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G13" t="n">
-        <v>70.19870757605938</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H13" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>127.6900358002174</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>354.2176370060546</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>708.9069583004754</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1100.092753270726</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1477.584264146762</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1833.012392826525</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2123.611604748426</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2250.611734989188</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2250.611734989188</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2080.476687508323</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>1837.137339734223</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1556.952891234527</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1275.241423842556</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W13" t="n">
-        <v>1000.389020015069</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X13" t="n">
-        <v>757.8251234608739</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y13" t="n">
-        <v>531.4823551506159</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1771.493180040501</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1344.592450053801</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>921.2998292388016</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>495.3228893866592</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>70.19870757605938</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G14" t="n">
-        <v>70.19870757605938</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H14" t="n">
-        <v>70.19870757605938</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I14" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>432.8021663929549</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>432.8021663929549</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>432.8021663929549</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M14" t="n">
-        <v>1222.439908012336</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N14" t="n">
-        <v>2091.148914266071</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O14" t="n">
-        <v>2936.293564416883</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P14" t="n">
-        <v>2936.293564416883</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q14" t="n">
-        <v>3392.379043921066</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3509.935378802969</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3509.935378802969</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3509.935378802969</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3356.942307737687</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2999.452892863937</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2603.061543164284</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2191.341544332031</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2191.341544332031</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>637.3221986075146</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>519.8162951250193</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>415.9763366403044</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>311.2744029132416</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>217.6285725961458</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>123.5748008137498</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>70.19870757605938</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>70.19870757605938</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K15" t="n">
-        <v>70.19870757605938</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L15" t="n">
-        <v>906.9975156589655</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M15" t="n">
-        <v>906.9975156589655</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N15" t="n">
-        <v>906.9975156589655</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O15" t="n">
-        <v>1775.7065219127</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P15" t="n">
-        <v>1878.886338156569</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1797.562090717824</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1655.682155015502</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1470.913958935138</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1265.940820074405</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1069.419442907622</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>905.9420966742849</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>766.2492080275773</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>987.1716242531497</v>
+        <v>584.2797508659046</v>
       </c>
       <c r="C16" t="n">
-        <v>815.1990611320657</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="D16" t="n">
-        <v>651.8822882588364</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E16" t="n">
-        <v>651.8822882588364</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F16" t="n">
-        <v>480.0205140333969</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G16" t="n">
-        <v>313.763544327629</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H16" t="n">
-        <v>169.9672758357834</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>70.19870757605938</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>127.6900358002174</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>354.2176370060546</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>708.9069583004754</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1100.092753270726</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1477.584264146762</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1833.012392826525</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2123.611604748426</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2250.611734989188</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2250.611734989188</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2080.476687508323</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T16" t="n">
-        <v>1837.137339734223</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U16" t="n">
-        <v>1837.137339734223</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V16" t="n">
-        <v>1837.137339734223</v>
+        <v>1518.20478826991</v>
       </c>
       <c r="W16" t="n">
-        <v>1646.244257829668</v>
+        <v>1243.352384442423</v>
       </c>
       <c r="X16" t="n">
-        <v>1403.680361275473</v>
+        <v>1000.788487888228</v>
       </c>
       <c r="Y16" t="n">
-        <v>1177.337592965215</v>
+        <v>774.4457195779703</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5501,13 +5503,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5516,19 +5518,19 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2398.817321261059</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3375.06837974776</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4220.213029898572</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P17" t="n">
         <v>4541.493855905342</v>
@@ -5558,7 +5560,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5597,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>1446.844867123559</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1446.844867123559</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
-        <v>1446.844867123559</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O18" t="n">
-        <v>1446.844867123559</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>545.9056190120762</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="C19" t="n">
-        <v>373.9330558909921</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D19" t="n">
-        <v>373.9330558909921</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E19" t="n">
-        <v>373.9330558909921</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F19" t="n">
-        <v>202.0712816655526</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G19" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5674,49 +5676,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358164</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302372</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100488</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976524</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656287</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578188</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081895</v>
       </c>
       <c r="R19" t="n">
-        <v>2265.034998850648</v>
+        <v>2235.677127506123</v>
       </c>
       <c r="S19" t="n">
-        <v>2094.899951369783</v>
+        <v>2235.677127506123</v>
       </c>
       <c r="T19" t="n">
-        <v>1851.560603595683</v>
+        <v>1992.337779732023</v>
       </c>
       <c r="U19" t="n">
-        <v>1571.376155095987</v>
+        <v>1992.337779732023</v>
       </c>
       <c r="V19" t="n">
-        <v>1289.664687704016</v>
+        <v>1721.093541902729</v>
       </c>
       <c r="W19" t="n">
-        <v>1014.812283876529</v>
+        <v>1446.241138075242</v>
       </c>
       <c r="X19" t="n">
-        <v>772.2483873223341</v>
+        <v>1203.677241521047</v>
       </c>
       <c r="Y19" t="n">
-        <v>545.9056190120762</v>
+        <v>1203.677241521047</v>
       </c>
     </row>
     <row r="20">
@@ -5750,28 +5752,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L20" t="n">
-        <v>1031.927761025105</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M20" t="n">
-        <v>2036.213862444163</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N20" t="n">
-        <v>3012.464920930865</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O20" t="n">
-        <v>3857.609571081677</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P20" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5021.974329743787</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5826,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="N21" t="n">
-        <v>1158.289251381874</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>446.1370507523521</v>
+        <v>703.5688235070123</v>
       </c>
       <c r="C22" t="n">
-        <v>274.1644876312681</v>
+        <v>531.5962603859283</v>
       </c>
       <c r="D22" t="n">
-        <v>274.1644876312681</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E22" t="n">
-        <v>274.1644876312681</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5926,34 +5928,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578191</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818952</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.677127506126</v>
       </c>
       <c r="S22" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.54208002526</v>
       </c>
       <c r="T22" t="n">
-        <v>1941.958004048024</v>
+        <v>1822.20273225116</v>
       </c>
       <c r="U22" t="n">
-        <v>1661.773555548329</v>
+        <v>1542.018283751465</v>
       </c>
       <c r="V22" t="n">
-        <v>1380.062088156358</v>
+        <v>1260.306816359493</v>
       </c>
       <c r="W22" t="n">
-        <v>1105.20968432887</v>
+        <v>1260.306816359493</v>
       </c>
       <c r="X22" t="n">
-        <v>862.6457877746757</v>
+        <v>1017.742919805299</v>
       </c>
       <c r="Y22" t="n">
-        <v>636.3030194644177</v>
+        <v>791.4001514950406</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905342</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6063,22 +6065,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M24" t="n">
-        <v>1021.509065974867</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>941.9189991784958</v>
+        <v>3264.247621598674</v>
       </c>
       <c r="C25" t="n">
-        <v>769.9464360574118</v>
+        <v>3264.247621598674</v>
       </c>
       <c r="D25" t="n">
-        <v>606.6296631841825</v>
+        <v>3100.930848725445</v>
       </c>
       <c r="E25" t="n">
-        <v>440.421457337036</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>5003.407922668447</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>4760.068574894347</v>
       </c>
       <c r="U25" t="n">
-        <v>2002.531292319261</v>
+        <v>4479.884126394652</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.81982492729</v>
+        <v>4198.17265900268</v>
       </c>
       <c r="W25" t="n">
-        <v>1445.967421099803</v>
+        <v>3923.320255175193</v>
       </c>
       <c r="X25" t="n">
-        <v>1358.427736200819</v>
+        <v>3680.756358620998</v>
       </c>
       <c r="Y25" t="n">
-        <v>1132.084967890562</v>
+        <v>3454.41359031074</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
         <v>5115.135670291427</v>
@@ -6312,10 +6314,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>326.3817789554925</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="C28" t="n">
-        <v>326.3817789554925</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>326.3817789554925</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>326.3817789554925</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>326.3817789554925</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>160.1248092497246</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>160.1248092497246</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6418,16 +6420,16 @@
         <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1478.529645348534</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1203.677241521047</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>1203.677241521047</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>1203.677241521047</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1067.07923602298</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C31" t="n">
-        <v>895.1066729018962</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D31" t="n">
-        <v>731.7899000286669</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>565.5816941815204</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>393.7199199560808</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>227.462950250313</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>2001.004273426986</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W31" t="n">
-        <v>1726.151869599499</v>
+        <v>1411.826604240323</v>
       </c>
       <c r="X31" t="n">
-        <v>1483.587973045304</v>
+        <v>1411.826604240323</v>
       </c>
       <c r="Y31" t="n">
-        <v>1257.245204735046</v>
+        <v>1185.483835930065</v>
       </c>
     </row>
     <row r="32">
@@ -6716,10 +6718,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>616.7597400424195</v>
+        <v>879.947609078273</v>
       </c>
       <c r="C34" t="n">
-        <v>444.7871769213355</v>
+        <v>707.975045957189</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7871769213355</v>
+        <v>544.6582730839597</v>
       </c>
       <c r="E34" t="n">
-        <v>444.7871769213355</v>
+        <v>378.4500672368132</v>
       </c>
       <c r="F34" t="n">
-        <v>444.7871769213355</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G34" t="n">
-        <v>278.5302072155676</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>134.733938723722</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6886,22 +6888,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>2112.580693338092</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1832.396244838396</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V34" t="n">
-        <v>1550.684777446425</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W34" t="n">
-        <v>1275.832373618938</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X34" t="n">
-        <v>1033.268477064743</v>
+        <v>1070.113577790339</v>
       </c>
       <c r="Y34" t="n">
-        <v>806.9257087544852</v>
+        <v>1070.113577790339</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F35" t="n">
         <v>839.4070255988738</v>
@@ -6935,7 +6937,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
@@ -6953,34 +6955,34 @@
         <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="36">
@@ -7011,19 +7013,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L36" t="n">
-        <v>374.0002026854196</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>409.4157547709034</v>
+        <v>875.4305977324519</v>
       </c>
       <c r="C37" t="n">
-        <v>409.4157547709034</v>
+        <v>703.4580346113679</v>
       </c>
       <c r="D37" t="n">
-        <v>246.0989818976742</v>
+        <v>540.1412617381386</v>
       </c>
       <c r="E37" t="n">
-        <v>246.0989818976742</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F37" t="n">
-        <v>246.0989818976742</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7111,34 +7113,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025268</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>2065.542080025268</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1864.72433421817</v>
       </c>
       <c r="V37" t="n">
-        <v>1343.340792174909</v>
+        <v>1583.012866826199</v>
       </c>
       <c r="W37" t="n">
-        <v>1068.488388347422</v>
+        <v>1308.160462998712</v>
       </c>
       <c r="X37" t="n">
-        <v>825.924491793227</v>
+        <v>1065.596566444518</v>
       </c>
       <c r="Y37" t="n">
-        <v>599.5817234829691</v>
+        <v>1065.596566444518</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7163,7 +7165,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7172,52 +7174,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596601</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747413</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905341</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7257,22 +7259,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>223.2920388516654</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>223.2920388516654</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>223.2920388516654</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
-        <v>1112.773316863137</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>446.1370507523521</v>
+        <v>603.8490191059097</v>
       </c>
       <c r="C40" t="n">
-        <v>274.1644876312681</v>
+        <v>431.8764559848257</v>
       </c>
       <c r="D40" t="n">
-        <v>274.1644876312681</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G40" t="n">
         <v>102.3027134058285</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2185.297351822124</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T40" t="n">
-        <v>1941.958004048024</v>
+        <v>2099.669972401582</v>
       </c>
       <c r="U40" t="n">
-        <v>1661.773555548329</v>
+        <v>1819.485523901886</v>
       </c>
       <c r="V40" t="n">
-        <v>1380.062088156358</v>
+        <v>1537.774056509915</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.20968432887</v>
+        <v>1262.921652682428</v>
       </c>
       <c r="X40" t="n">
-        <v>862.6457877746757</v>
+        <v>1020.357756128233</v>
       </c>
       <c r="Y40" t="n">
-        <v>636.3030194644177</v>
+        <v>794.0149878179755</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1199.306878499276</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>772.4061485125759</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>772.4061485125759</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>772.4061485125759</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>772.4061485125759</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>368.0670861020245</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>70.19870757605936</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I41" t="n">
-        <v>70.19870757605936</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>432.8021663929549</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>1148.310474368454</v>
+        <v>786.1869982294937</v>
       </c>
       <c r="L41" t="n">
-        <v>2017.019480622188</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M41" t="n">
-        <v>2017.019480622188</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N41" t="n">
-        <v>2208.705249147973</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O41" t="n">
-        <v>3053.849899298785</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P41" t="n">
-        <v>3053.849899298785</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3509.935378802968</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3509.935378802968</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3405.568084676108</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3184.642513720742</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>2926.287604317154</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2568.798189443403</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>2172.40683974375</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>1760.686840911498</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>1619.155242790806</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>637.3221986075146</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>519.8162951250193</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>415.9763366403044</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>311.2744029132416</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>217.6285725961458</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>123.5748008137498</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>70.19870757605936</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>70.19870757605936</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>341.8961968556504</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>932.3811234239899</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L42" t="n">
-        <v>932.3811234239899</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M42" t="n">
-        <v>932.3811234239899</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="N42" t="n">
-        <v>932.3811234239899</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="O42" t="n">
-        <v>1796.867028071866</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="P42" t="n">
-        <v>1796.867028071866</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1796.867028071866</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1797.562090717824</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1655.682155015502</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1470.913958935138</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1265.940820074405</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1069.419442907622</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>905.9420966742849</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>766.2492080275773</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>746.4982204754973</v>
+        <v>747.5965237391339</v>
       </c>
       <c r="C43" t="n">
-        <v>574.5256573544133</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="D43" t="n">
-        <v>574.5256573544133</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E43" t="n">
-        <v>408.3174515072668</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F43" t="n">
-        <v>236.4556772818272</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G43" t="n">
-        <v>70.19870757605936</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H43" t="n">
-        <v>70.19870757605936</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>70.19870757605936</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>127.6900358002174</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>354.2176370060546</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>708.9069583004754</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1100.092753270726</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1477.584264146762</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1833.012392826525</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2123.611604748426</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2250.611734989188</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2250.611734989188</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2080.476687508323</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>2080.476687508323</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>1800.292239008627</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.580771616656</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W43" t="n">
-        <v>1243.728367789169</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X43" t="n">
-        <v>1001.164471234974</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y43" t="n">
-        <v>936.6641891875629</v>
+        <v>937.7624924511995</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2473.700620977018</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>2046.799890990318</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1623.507270175318</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>1197.530330323176</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>772.4061485125759</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G44" t="n">
-        <v>368.0670861020245</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H44" t="n">
-        <v>70.19870757605936</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I44" t="n">
-        <v>70.19870757605936</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>211.8644081691878</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>927.3727161446868</v>
+        <v>786.1869982294937</v>
       </c>
       <c r="L44" t="n">
-        <v>1796.081722398421</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M44" t="n">
-        <v>1796.081722398421</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N44" t="n">
-        <v>2664.790728652156</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O44" t="n">
-        <v>3509.935378802968</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P44" t="n">
-        <v>3509.935378802968</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3509.935378802968</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3509.935378802968</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3509.935378802968</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3509.935378802968</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3509.935378802968</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3509.935378802968</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>3509.935378802968</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>3098.215379970715</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2893.548985268548</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>637.3221986075146</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>519.8162951250193</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>415.9763366403044</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>311.2744029132416</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>217.6285725961458</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>123.5748008137498</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>70.19870757605936</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>70.19870757605936</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>341.8961968556504</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K45" t="n">
-        <v>577.9420532108836</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L45" t="n">
-        <v>1414.74086129379</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M45" t="n">
-        <v>1414.74086129379</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N45" t="n">
-        <v>1414.74086129379</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O45" t="n">
-        <v>1414.74086129379</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P45" t="n">
-        <v>1414.74086129379</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>1878.886338156569</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1797.562090717824</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1655.682155015502</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1470.913958935138</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1265.940820074405</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1069.419442907622</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>905.9420966742849</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>766.2492080275773</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>754.7907816935156</v>
+        <v>778.6022263052665</v>
       </c>
       <c r="C46" t="n">
-        <v>582.8182185724315</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="D46" t="n">
-        <v>574.5256573544133</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E46" t="n">
-        <v>408.3174515072668</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F46" t="n">
-        <v>236.4556772818272</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G46" t="n">
-        <v>70.19870757605936</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>70.19870757605936</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>70.19870757605936</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>127.6900358002174</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>354.2176370060546</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>708.9069583004754</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1100.092753270726</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1477.584264146762</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1833.012392826525</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2123.611604748426</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2250.611734989188</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2250.611734989188</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2250.611734989188</v>
+        <v>2274.423179600939</v>
       </c>
       <c r="T46" t="n">
-        <v>2250.611734989188</v>
+        <v>2274.423179600939</v>
       </c>
       <c r="U46" t="n">
-        <v>1970.427286489492</v>
+        <v>1994.238731101243</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.715819097521</v>
+        <v>1712.527263709272</v>
       </c>
       <c r="W46" t="n">
-        <v>1413.863415270034</v>
+        <v>1437.674859881785</v>
       </c>
       <c r="X46" t="n">
-        <v>1171.299518715839</v>
+        <v>1195.11096332759</v>
       </c>
       <c r="Y46" t="n">
-        <v>944.9567504055813</v>
+        <v>968.7681950173321</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>362.3257551502136</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>521.2079540534006</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>521.0563139884149</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>521.1676505099929</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>132.9966880557812</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8064,19 +8066,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>323.2971362560222</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>505.1197193675105</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>506.948580876191</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>108.2148272869816</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8140,7 +8142,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>380.1908016072373</v>
+        <v>221.5965916589457</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8152,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>68.71811917318276</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
         <v>24.61956276478495</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>362.3257551502136</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>84.86874406016992</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8295,10 +8297,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745637</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8310,10 +8312,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>100.6929657092928</v>
+        <v>372.4370567591071</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8386,13 +8388,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.9153581548562</v>
+        <v>315.915358154857</v>
       </c>
       <c r="Q7" t="n">
-        <v>136.4406355808522</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>86.17533235500369</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>547.8252218830993</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>372.2051051843581</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>463.2315577343861</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8693,25 +8695,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>915.7958871333651</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>914.915107600174</v>
+        <v>1027.220259954781</v>
       </c>
       <c r="N11" t="n">
-        <v>914.7634675351883</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>418.7285078020062</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>255.1489227688569</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>189.2472225695928</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8790,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,25 +8929,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>324.3764525304035</v>
       </c>
       <c r="M14" t="n">
-        <v>835.045143323049</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>914.7634675351883</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9000,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>53.81684833958155</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>900.6557344229644</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>125.9928778147971</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9164,7 +9166,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9176,10 +9178,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086332</v>
       </c>
       <c r="P17" t="n">
-        <v>362.1014486857561</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9243,13 +9245,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>784.1890535317962</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9258,13 +9260,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>699.2271871843856</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>35.76460079480934</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>362.1014486857561</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>129.1350140843319</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9492,16 +9494,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>60.04398625350153</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>418.2396143276235</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9653,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>464.8736204150517</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9711,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9723,13 +9725,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>951.5880457335786</v>
+        <v>742.2139937908412</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9881,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>56.96224792398087</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9890,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9960,13 +9962,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>949.8342934347922</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>218.8019602116015</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>218.8019602116006</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
@@ -10671,10 +10673,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>475.2939470053066</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>774.1253005797566</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10829,10 +10831,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>276.0147300838786</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10844,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,25 +10907,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>144.7265265585093</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O39" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,16 +11062,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>758.5002654165255</v>
+        <v>360.2906876703342</v>
       </c>
       <c r="L41" t="n">
-        <v>915.7958871333649</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>230.901611244329</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11081,7 +11083,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>896.3899752251272</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>31.27739019491188</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>172.5166267513728</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>360.2906876703342</v>
       </c>
       <c r="L44" t="n">
-        <v>915.7958871333649</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>914.7634675351881</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11315,10 +11317,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,10 +11378,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>260.8293917679123</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>426.8993572042261</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11397,7 +11399,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>233.2120691334757</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>85.11443092147002</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23425,13 +23427,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>71.98949189919233</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>104.3082199549226</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>86.88529518525144</v>
       </c>
       <c r="W16" t="n">
-        <v>83.11972870370317</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>29.06429263107255</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>10.36255726705059</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>101.311294316797</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24145,7 +24147,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24412,10 +24414,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>57.82322685930616</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>153.4739695386592</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>41.52700769166964</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>216.0406006991457</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>18.44967133088755</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>143.2141170731777</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>137.8864645745644</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>66.66396951241228</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>78.57303566567205</v>
       </c>
       <c r="V37" t="n">
-        <v>35.63540887755826</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25552,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>106.2588707428565</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25631,13 +25633,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>261.1676152051737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>160.2240614002184</v>
+        <v>176.8643397471519</v>
       </c>
     </row>
     <row r="44">
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>198.6641665895127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>153.4739695386589</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>160.2240614002188</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>629082.9574850863</v>
+        <v>630918.8122466579</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>629082.9574850863</v>
+        <v>636862.9072046538</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>516344.7680779034</v>
+        <v>662508.5502428836</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>516344.7680779033</v>
+        <v>662508.5502428836</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>662508.5502428835</v>
+        <v>662508.5502428834</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>516344.7680779033</v>
+        <v>662508.5502428837</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>516344.7680779033</v>
+        <v>662508.5502428836</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451393.0677086512</v>
+        <v>451393.0677086515</v>
       </c>
       <c r="C2" t="n">
-        <v>451393.0677086515</v>
+        <v>451393.0677086513</v>
       </c>
       <c r="D2" t="n">
         <v>451393.0677086514</v>
       </c>
       <c r="E2" t="n">
-        <v>339499.6956678601</v>
+        <v>435573.5624315218</v>
       </c>
       <c r="F2" t="n">
-        <v>339499.6956678601</v>
+        <v>435573.5624315216</v>
       </c>
       <c r="G2" t="n">
         <v>435573.5624315217</v>
       </c>
       <c r="H2" t="n">
+        <v>435573.5624315215</v>
+      </c>
+      <c r="I2" t="n">
         <v>435573.5624315217</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>435573.5624315216</v>
+      </c>
+      <c r="K2" t="n">
+        <v>435573.5624315217</v>
+      </c>
+      <c r="L2" t="n">
+        <v>435573.5624315218</v>
+      </c>
+      <c r="M2" t="n">
+        <v>435573.5624315215</v>
+      </c>
+      <c r="N2" t="n">
+        <v>435573.5624315213</v>
+      </c>
+      <c r="O2" t="n">
         <v>435573.5624315214</v>
       </c>
-      <c r="J2" t="n">
-        <v>435573.5624315215</v>
-      </c>
-      <c r="K2" t="n">
-        <v>435573.5624315215</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>435573.5624315217</v>
-      </c>
-      <c r="M2" t="n">
-        <v>435573.5624315218</v>
-      </c>
-      <c r="N2" t="n">
-        <v>435573.5624315217</v>
-      </c>
-      <c r="O2" t="n">
-        <v>339499.6956678601</v>
-      </c>
-      <c r="P2" t="n">
-        <v>339499.6956678602</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695915</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361195</v>
       </c>
       <c r="D3" t="n">
-        <v>29456.39286176439</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95919.98339863036</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>109990.3304731535</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.268580289</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701958</v>
       </c>
       <c r="L3" t="n">
-        <v>24000.08990045009</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80058.2880951452</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222411.617985748</v>
+        <v>219126.2750134968</v>
       </c>
       <c r="C4" t="n">
-        <v>222411.617985748</v>
+        <v>208489.0552260627</v>
       </c>
       <c r="D4" t="n">
         <v>208489.0552260627</v>
       </c>
       <c r="E4" t="n">
-        <v>89842.58303553917</v>
+        <v>115328.9674438159</v>
       </c>
       <c r="F4" t="n">
-        <v>89842.58303553917</v>
+        <v>115328.9674438159</v>
       </c>
       <c r="G4" t="n">
-        <v>115328.9674438159</v>
+        <v>115328.9674438158</v>
       </c>
       <c r="H4" t="n">
-        <v>115328.9674438159</v>
+        <v>115328.9674438158</v>
       </c>
       <c r="I4" t="n">
         <v>115328.9674438159</v>
@@ -26454,10 +26456,10 @@
         <v>115328.9674438159</v>
       </c>
       <c r="O4" t="n">
-        <v>89842.58303553914</v>
+        <v>115328.9674438159</v>
       </c>
       <c r="P4" t="n">
-        <v>89842.58303553915</v>
+        <v>115328.9674438159</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.2228221613</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>53351.01775780512</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>53351.01775780512</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>53351.01775780511</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>53351.01775780511</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12675.01483455452</v>
+        <v>7100.873803401832</v>
       </c>
       <c r="C6" t="n">
-        <v>167300.7354526752</v>
+        <v>152050.9277715486</v>
       </c>
       <c r="D6" t="n">
-        <v>146001.3685833961</v>
+        <v>175457.7614451606</v>
       </c>
       <c r="E6" t="n">
-        <v>100386.1114758855</v>
+        <v>26755.17624263576</v>
       </c>
       <c r="F6" t="n">
-        <v>196306.0948745158</v>
+        <v>242494.5327992761</v>
       </c>
       <c r="G6" t="n">
-        <v>132504.2023261225</v>
+        <v>242494.5327992762</v>
       </c>
       <c r="H6" t="n">
-        <v>242494.532799276</v>
+        <v>242494.5327992761</v>
       </c>
       <c r="I6" t="n">
+        <v>242494.5327992761</v>
+      </c>
+      <c r="J6" t="n">
+        <v>115917.264218987</v>
+      </c>
+      <c r="K6" t="n">
+        <v>223847.9324422565</v>
+      </c>
+      <c r="L6" t="n">
+        <v>242494.5327992762</v>
+      </c>
+      <c r="M6" t="n">
+        <v>62430.66134410819</v>
+      </c>
+      <c r="N6" t="n">
         <v>242494.5327992758</v>
       </c>
-      <c r="J6" t="n">
-        <v>121772.015856519</v>
-      </c>
-      <c r="K6" t="n">
-        <v>242494.5327992759</v>
-      </c>
-      <c r="L6" t="n">
-        <v>218494.442898826</v>
-      </c>
-      <c r="M6" t="n">
-        <v>162436.2447041311</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
+        <v>242494.5327992758</v>
+      </c>
+      <c r="P6" t="n">
         <v>242494.5327992761</v>
-      </c>
-      <c r="O6" t="n">
-        <v>196306.0948745158</v>
-      </c>
-      <c r="P6" t="n">
-        <v>196306.094874516</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539688</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>877.4838447007422</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>877.4838447007422</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>877.483844700742</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>877.483844700742</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539688</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162529</v>
       </c>
       <c r="D4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>321.2560315851481</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>401.3000728721146</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539688</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162529</v>
       </c>
       <c r="L4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>321.2560315851479</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539688</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162529</v>
       </c>
       <c r="L4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>321.2560315851481</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>401.3000728721146</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>137.2293373345548</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,10 +27390,10 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>107.6276504895419</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>200.3409477840791</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>108.5452865762597</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>162.8640785093684</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>213.4027168294473</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27679,7 +27681,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>97.29940568327284</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>141.3777290182691</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>121.3490311215718</v>
+        <v>272.3699127117746</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28065,10 +28067,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>12.73838178107241</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>188.0616599452731</v>
       </c>
     </row>
     <row r="11">
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539688</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539688</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>483.7766911539688</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>97.96403816098469</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>300.2003557436942</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539688</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539688</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.46778899800312</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34860,7 +34862,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115361</v>
+        <v>199.6778317632445</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34872,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>46.33731851519627</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>324.0137127175907</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35015,10 +35017,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>77.94592742031428</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35106,13 +35108,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968705</v>
       </c>
       <c r="Q7" t="n">
-        <v>111.8210728160673</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>48.74406945557187</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>349.6900184701286</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>440.0596680121639</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35413,25 +35415,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>877.4838447007422</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>877.4838447007422</v>
+        <v>989.7889970553492</v>
       </c>
       <c r="N11" t="n">
-        <v>877.4838447007422</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>381.3375484459821</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.6338360546273</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>167.9041943560511</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,25 +35649,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="M14" t="n">
-        <v>797.6138804236173</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>877.4838447007422</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35720,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>30.72006782725357</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>877.4838447007422</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>104.2220366099685</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35896,10 +35898,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526091</v>
       </c>
       <c r="P17" t="n">
-        <v>324.5260868755248</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35963,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>761.6739668175666</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>677.4563459795569</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937675</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>324.5260868755248</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>94.10236418953542</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>36.8720965312793</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>395.492576038645</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36294,7 +36296,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>293.5345574968697</v>
+        <v>293.534557496865</v>
       </c>
       <c r="Q22" t="n">
         <v>128.2829598391535</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36373,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>928.4912652212506</v>
+        <v>719.1172132785132</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36601,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>19.53098502454905</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36610,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>928.4912652212506</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>181.2265984013702</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>181.2265984013693</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.1971664929786</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>752.782272366215</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37479,7 +37481,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968727</v>
       </c>
       <c r="Q37" t="n">
         <v>128.2829598391535</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37549,10 +37551,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>238.7351072494326</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37564,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>122.2114398442797</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O39" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,16 +37782,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>722.7356646217162</v>
+        <v>324.5260868755249</v>
       </c>
       <c r="L41" t="n">
-        <v>877.483844700742</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>193.621988409883</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37801,7 +37803,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>873.218085502905</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>9.506548990083218</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>143.0966672657863</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>324.5260868755249</v>
       </c>
       <c r="L44" t="n">
-        <v>877.483844700742</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>877.483844700742</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38035,10 +38037,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,10 +38098,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>238.430157934579</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_8_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1388591.996414434</v>
+        <v>1387895.335209343</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114761</v>
+        <v>612367.9462114749</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -667,19 +667,19 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>111.0886647562713</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>3.336984001597704</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>163.7290048824514</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -831,13 +831,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>131.5929710123932</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>259.7676441774644</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -907,10 +907,10 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>244.7387203345617</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1062,7 +1062,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -1074,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>99.52822527808995</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>74.07475062513807</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>72.12684346238416</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -1147,13 +1147,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>22.51978202893086</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1341,16 +1341,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>36.01768068188228</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1378,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.872939992494</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.149878103475</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>128.4601123807836</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1548,7 +1548,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1615,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1770,7 +1770,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>44.02781544003288</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1824,10 +1824,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>192.0090575327999</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1852,7 +1852,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -1861,10 +1861,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396359</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458133</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -1909,7 +1909,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439306</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2004,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>268.5317954510008</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86.95301470814802</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2301,7 +2301,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2383,7 +2383,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -2478,16 +2478,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>110.6104701467503</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2715,22 +2715,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>121.2482518332238</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -2763,7 +2763,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2772,16 +2772,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>62.85375201890571</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>121.2482518332238</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -3000,7 +3000,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3009,13 +3009,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>128.8897627160344</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>32.25669190862082</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3255,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
@@ -3319,7 +3319,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U35" t="n">
         <v>255.7713603095518</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0.6132439802989597</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3432,19 +3432,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>164.5461237886708</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>198.8095683490267</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3489,10 +3489,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -3556,7 +3556,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
@@ -3666,16 +3666,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>134.6470835535025</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>152.0898487279629</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3903,19 +3903,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3960,13 +3960,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>200.1143878900198</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.21500088000342</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>8.209635605837729</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>932.2144580460986</v>
+        <v>563.0709252622231</v>
       </c>
       <c r="C2" t="n">
-        <v>909.3541320998028</v>
+        <v>540.2105993159273</v>
       </c>
       <c r="D2" t="n">
-        <v>890.1019153252071</v>
+        <v>520.9583825413316</v>
       </c>
       <c r="E2" t="n">
-        <v>868.1653795134687</v>
+        <v>94.98144268918922</v>
       </c>
       <c r="F2" t="n">
-        <v>443.0411977028689</v>
+        <v>73.89766491899353</v>
       </c>
       <c r="G2" t="n">
-        <v>38.70213529231751</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231751</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231751</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
         <v>401.305594109213</v>
@@ -4339,43 +4339,43 @@
         <v>401.305594109213</v>
       </c>
       <c r="M2" t="n">
-        <v>880.2445183516422</v>
+        <v>401.305594109213</v>
       </c>
       <c r="N2" t="n">
-        <v>1359.183442594071</v>
+        <v>403.5871017449294</v>
       </c>
       <c r="O2" t="n">
-        <v>1838.122366836501</v>
+        <v>882.5260259873576</v>
       </c>
       <c r="P2" t="n">
-        <v>1838.122366836501</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="Q2" t="n">
-        <v>1838.122366836501</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615875</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489016</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>1718.528698007934</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="U2" t="n">
-        <v>1718.528698007934</v>
+        <v>1351.458990130057</v>
       </c>
       <c r="V2" t="n">
-        <v>1361.039283134183</v>
+        <v>993.9695752563066</v>
       </c>
       <c r="W2" t="n">
-        <v>1361.039283134183</v>
+        <v>993.9695752563066</v>
       </c>
       <c r="X2" t="n">
-        <v>1353.359688342334</v>
+        <v>582.2495764240539</v>
       </c>
       <c r="Y2" t="n">
-        <v>1352.062822337629</v>
+        <v>578.8788855133491</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.8256263237728</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>488.3197228412776</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565626</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294998</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124039</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000792</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231751</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>46.14877825422935</v>
+        <v>46.14877825422927</v>
       </c>
       <c r="J3" t="n">
-        <v>46.14877825422935</v>
+        <v>46.14877825422927</v>
       </c>
       <c r="K3" t="n">
-        <v>46.14877825422935</v>
+        <v>46.14877825422927</v>
       </c>
       <c r="L3" t="n">
-        <v>46.14877825422935</v>
+        <v>525.0877024966574</v>
       </c>
       <c r="M3" t="n">
-        <v>343.3471304404866</v>
+        <v>525.0877024966574</v>
       </c>
       <c r="N3" t="n">
-        <v>822.2860546829157</v>
+        <v>822.2860546829165</v>
       </c>
       <c r="O3" t="n">
         <v>1301.224978925345</v>
@@ -4451,10 +4451,10 @@
         <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>874.4455243905431</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>734.7526357438355</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>949.9106946954703</v>
+        <v>705.4717214527302</v>
       </c>
       <c r="C4" t="n">
-        <v>949.9106946954703</v>
+        <v>540.0888882381328</v>
       </c>
       <c r="D4" t="n">
-        <v>786.593921822241</v>
+        <v>376.7721153649035</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3857159750945</v>
+        <v>210.563909517757</v>
       </c>
       <c r="F4" t="n">
-        <v>448.523941749655</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438871</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231751</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647553</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223127</v>
+        <v>265.2297364981546</v>
       </c>
       <c r="L4" t="n">
-        <v>520.4021181679248</v>
+        <v>619.9190577925754</v>
       </c>
       <c r="M4" t="n">
-        <v>911.5879131381755</v>
+        <v>1011.104852762826</v>
       </c>
       <c r="N4" t="n">
-        <v>1289.079424014211</v>
+        <v>1388.596363638862</v>
       </c>
       <c r="O4" t="n">
-        <v>1644.507552693975</v>
+        <v>1744.024492318625</v>
       </c>
       <c r="P4" t="n">
-        <v>1935.106764615875</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615875</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303049</v>
+        <v>1888.068151303044</v>
       </c>
       <c r="S4" t="n">
-        <v>1888.068151303049</v>
+        <v>1888.068151303044</v>
       </c>
       <c r="T4" t="n">
-        <v>1644.728803528948</v>
+        <v>1644.728803528944</v>
       </c>
       <c r="U4" t="n">
-        <v>1364.544355029253</v>
+        <v>1364.544355029249</v>
       </c>
       <c r="V4" t="n">
-        <v>1082.832887637282</v>
+        <v>1364.544355029249</v>
       </c>
       <c r="W4" t="n">
-        <v>1082.832887637282</v>
+        <v>1364.544355029249</v>
       </c>
       <c r="X4" t="n">
-        <v>949.9106946954703</v>
+        <v>1121.980458475054</v>
       </c>
       <c r="Y4" t="n">
-        <v>949.9106946954703</v>
+        <v>895.6376901647959</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>808.398248848074</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C5" t="n">
-        <v>546.0066890728574</v>
+        <v>1354.087497153665</v>
       </c>
       <c r="D5" t="n">
-        <v>122.7140682578577</v>
+        <v>930.7948763386659</v>
       </c>
       <c r="E5" t="n">
-        <v>100.7775324461193</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
         <v>79.39509630577632</v>
@@ -4570,22 +4570,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="L5" t="n">
         <v>957.7672188505812</v>
       </c>
-      <c r="L5" t="n">
-        <v>1508.432753835019</v>
-      </c>
       <c r="M5" t="n">
-        <v>2059.098288819458</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>2059.098288819458</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>2059.098288819458</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2059.098288819458</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4609,10 +4609,10 @@
         <v>1641.263477976562</v>
       </c>
       <c r="X5" t="n">
-        <v>1229.54347914431</v>
+        <v>1394.052649355793</v>
       </c>
       <c r="Y5" t="n">
-        <v>824.2062090992</v>
+        <v>1392.755783351087</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>323.6423572907505</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>874.3078922751886</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="M6" t="n">
-        <v>874.3078922751886</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="N6" t="n">
-        <v>874.3078922751886</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="O6" t="n">
-        <v>874.3078922751886</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P6" t="n">
-        <v>1424.973427259627</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>861.7025734666139</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>689.7300103455299</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>526.4132374723006</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4743,34 +4743,34 @@
         <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.87263914955</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>2077.33907826259</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>2077.33907826259</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1795.627610870619</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1520.775207043132</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="X7" t="n">
-        <v>1278.211310488937</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="Y7" t="n">
-        <v>1051.868542178679</v>
+        <v>1127.679347573484</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1803.735481715043</v>
+        <v>1796.086427374292</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.834751728343</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D8" t="n">
-        <v>953.5421309133435</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E8" t="n">
-        <v>527.5651910612011</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>102.4410092506013</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>102.142350880454</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N8" t="n">
-        <v>1651.269438076291</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
-        <v>1651.269438076291</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4843,13 +4843,13 @@
         <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1828.519902762723</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1820.840307970875</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>1819.543441966169</v>
+        <v>1811.894387625418</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>323.6423572907505</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>669.8354755761777</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>669.8354755761777</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>648.7045319829699</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>476.7319688618859</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>476.7319688618859</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>310.5237630147394</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5237630147394</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>648.7045319829699</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5023,46 +5023,46 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O11" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P11" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291427</v>
@@ -5080,10 +5080,10 @@
         <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
         <v>2960.549862354846</v>
@@ -5120,28 +5120,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>109.7493563677404</v>
+        <v>138.8060889717951</v>
       </c>
       <c r="K12" t="n">
-        <v>109.7493563677404</v>
+        <v>138.8060889717951</v>
       </c>
       <c r="L12" t="n">
-        <v>946.5481644506465</v>
+        <v>138.8060889717951</v>
       </c>
       <c r="M12" t="n">
-        <v>946.5481644506465</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N12" t="n">
-        <v>1112.773316863137</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O12" t="n">
-        <v>1112.773316863137</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.355951603442</v>
+        <v>977.0607562353539</v>
       </c>
       <c r="C13" t="n">
-        <v>412.355951603442</v>
+        <v>977.0607562353539</v>
       </c>
       <c r="D13" t="n">
-        <v>412.355951603442</v>
+        <v>813.7439833621246</v>
       </c>
       <c r="E13" t="n">
-        <v>412.355951603442</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F13" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G13" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
@@ -5205,46 +5205,46 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302482</v>
       </c>
       <c r="M13" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N13" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O13" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P13" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q13" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>2002.531292319265</v>
       </c>
       <c r="V13" t="n">
-        <v>1260.306816359498</v>
+        <v>1720.819824927294</v>
       </c>
       <c r="W13" t="n">
-        <v>985.454412532011</v>
+        <v>1445.967421099807</v>
       </c>
       <c r="X13" t="n">
-        <v>742.8905159778161</v>
+        <v>1203.403524545612</v>
       </c>
       <c r="Y13" t="n">
-        <v>516.5477476675582</v>
+        <v>977.0607562353539</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
         <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
@@ -5284,22 +5284,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1463.618246195026</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M14" t="n">
-        <v>2467.904347614084</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N14" t="n">
-        <v>3444.155406100785</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O14" t="n">
-        <v>4289.300056251597</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P14" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291427</v>
@@ -5323,7 +5323,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>700.2342829360799</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>700.2342829360799</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P15" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>584.2797508659046</v>
+        <v>648.2727960958064</v>
       </c>
       <c r="C16" t="n">
-        <v>412.3071877448206</v>
+        <v>476.3002329747223</v>
       </c>
       <c r="D16" t="n">
-        <v>412.3071877448206</v>
+        <v>312.9834601014931</v>
       </c>
       <c r="E16" t="n">
-        <v>246.0989818976742</v>
+        <v>146.7752542543466</v>
       </c>
       <c r="F16" t="n">
-        <v>246.0989818976742</v>
+        <v>146.7752542543466</v>
       </c>
       <c r="G16" t="n">
-        <v>246.0989818976742</v>
+        <v>146.7752542543466</v>
       </c>
       <c r="H16" t="n">
         <v>102.3027134058285</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>1992.33777973203</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1712.153331232334</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V16" t="n">
-        <v>1518.20478826991</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W16" t="n">
-        <v>1243.352384442423</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X16" t="n">
-        <v>1000.788487888228</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y16" t="n">
-        <v>774.4457195779703</v>
+        <v>838.4387648078721</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5524,13 +5524,13 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
         <v>4541.493855905342</v>
@@ -5560,7 +5560,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N18" t="n">
-        <v>1158.289251381874</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O18" t="n">
-        <v>1158.289251381874</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P18" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
         <v>1828.971033901635</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1013.511272808982</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5676,49 +5676,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358164</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302372</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100488</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976524</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656287</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578188</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.71574081895</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.677127506123</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.677127506123</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.337779732023</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1992.337779732023</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1721.093541902729</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1446.241138075242</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1203.677241521047</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1203.677241521047</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,40 +5740,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2398.817321261059</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>3375.06837974776</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>4220.213029898572</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5834,25 +5834,25 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>1437.433383623377</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1437.433383623377</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1437.433383623377</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1437.433383623377</v>
+        <v>1688.129489254169</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>703.5688235070123</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>531.5962603859283</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>368.279487512699</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>202.0712816655526</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5928,34 +5928,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578191</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818952</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.677127506126</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.54208002526</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.20273225116</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751465</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359493</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1260.306816359493</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1017.742919805299</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>791.4001514950406</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -6007,10 +6007,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4573.117879057176</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6025,10 +6025,10 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V23" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W23" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X23" t="n">
         <v>3365.887132399955</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>109.7493563677404</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3264.247621598674</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>3264.247621598674</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>3100.930848725445</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>5003.407922668447</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>4760.068574894347</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>4479.884126394652</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>4198.17265900268</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>3923.320255175193</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>3680.756358620998</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>3454.41359031074</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1013.511272808982</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="H28" t="n">
         <v>202.0712816655526</v>
@@ -6411,25 +6411,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V28" t="n">
-        <v>1478.529645348534</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W28" t="n">
-        <v>1203.677241521047</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X28" t="n">
-        <v>1203.677241521047</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y28" t="n">
-        <v>1203.677241521047</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="29">
@@ -6481,10 +6481,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1185.483835930065</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.511272808982</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="H31" t="n">
         <v>202.0712816655526</v>
@@ -6648,25 +6648,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V31" t="n">
-        <v>1542.018283751469</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W31" t="n">
-        <v>1411.826604240323</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X31" t="n">
-        <v>1411.826604240323</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y31" t="n">
-        <v>1185.483835930065</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="32">
@@ -6715,13 +6715,13 @@
         <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6785,16 +6785,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>879.947609078273</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C34" t="n">
-        <v>707.975045957189</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D34" t="n">
-        <v>544.6582730839597</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E34" t="n">
-        <v>378.4500672368132</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F34" t="n">
-        <v>345.8675501573982</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U34" t="n">
-        <v>1869.241345563992</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V34" t="n">
-        <v>1587.529878172021</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W34" t="n">
-        <v>1312.677474344533</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X34" t="n">
-        <v>1070.113577790339</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y34" t="n">
-        <v>1070.113577790339</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
         <v>839.4070255988738</v>
@@ -6937,25 +6937,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
         <v>4997.579335409525</v>
@@ -6967,22 +6967,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>109.7493563677404</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>109.7493563677404</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L36" t="n">
-        <v>109.7493563677404</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M36" t="n">
-        <v>1165.735894343786</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>875.4305977324519</v>
+        <v>1085.715267670337</v>
       </c>
       <c r="C37" t="n">
-        <v>703.4580346113679</v>
+        <v>913.7427045492532</v>
       </c>
       <c r="D37" t="n">
-        <v>540.1412617381386</v>
+        <v>750.4259316760239</v>
       </c>
       <c r="E37" t="n">
-        <v>373.9330558909921</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F37" t="n">
-        <v>202.0712816655526</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7113,34 +7113,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578198</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.677127506133</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025268</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2065.542080025268</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1864.72433421817</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V37" t="n">
-        <v>1583.012866826199</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W37" t="n">
-        <v>1308.160462998712</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X37" t="n">
-        <v>1065.596566444518</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="Y37" t="n">
-        <v>1065.596566444518</v>
+        <v>1086.334706034276</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7183,19 +7183,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2110.0395278175</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N38" t="n">
-        <v>3086.290586304201</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O38" t="n">
-        <v>3931.435236455013</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P38" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7204,22 +7204,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1408.985357012666</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>603.8490191059097</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>431.8764559848257</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2099.669972401582</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1819.485523901886</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1537.774056509915</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.921652682428</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>1020.357756128233</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>794.0149878179755</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
         <v>1690.508147261616</v>
@@ -7399,13 +7399,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
@@ -7414,25 +7414,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>786.1869982294937</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2720.098147267829</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>3696.34920575453</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O41" t="n">
-        <v>4541.493855905342</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R41" t="n">
         <v>5115.135670291427</v>
@@ -7447,16 +7447,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>381.4468456473314</v>
+        <v>140.1622235167214</v>
       </c>
       <c r="K42" t="n">
-        <v>381.4468456473314</v>
+        <v>730.647150085061</v>
       </c>
       <c r="L42" t="n">
-        <v>381.4468456473314</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M42" t="n">
-        <v>1437.433383623377</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N42" t="n">
-        <v>1437.433383623377</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O42" t="n">
-        <v>1437.433383623377</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P42" t="n">
         <v>1446.844867123559</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>747.5965237391339</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>575.6239606180499</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>412.3071877448206</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>246.0989818976742</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
         <v>102.3027134058285</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V43" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W43" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>985.454412532011</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>937.7624924511995</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
@@ -7651,19 +7651,19 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>786.1869982294937</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2720.098147267829</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>3696.34920575453</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O44" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
         <v>4541.493855905342</v>
@@ -7684,16 +7684,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>374.0002026854196</v>
+        <v>140.1622235167214</v>
       </c>
       <c r="K45" t="n">
-        <v>964.4851292537592</v>
+        <v>730.647150085061</v>
       </c>
       <c r="L45" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M45" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N45" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O45" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P45" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>778.6022263052665</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
         <v>102.3027134058285</v>
@@ -7833,25 +7833,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2274.423179600939</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>2274.423179600939</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>1994.238731101243</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1712.527263709272</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>1437.674859881785</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>1195.11096332759</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>968.7681950173321</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7987,22 +7987,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>521.2079540534006</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884149</v>
+        <v>39.5841760018364</v>
       </c>
       <c r="O2" t="n">
-        <v>521.1676505099929</v>
+        <v>521.167650509992</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>132.9966880557812</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,16 +8063,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778681974</v>
       </c>
       <c r="M3" t="n">
-        <v>323.2971362560222</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>505.1197193675105</v>
+        <v>321.5433839572378</v>
       </c>
       <c r="O3" t="n">
-        <v>506.948580876191</v>
+        <v>506.94858087619</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8136,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>221.5965916589457</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8154,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>215.3931969178311</v>
       </c>
       <c r="Q4" t="n">
         <v>24.61956276478495</v>
@@ -8218,25 +8218,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>84.86874406016992</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8297,7 +8297,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
@@ -8309,13 +8309,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>372.8619081923508</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>372.4370567591071</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8391,7 +8391,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.915358154857</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
@@ -8464,16 +8464,16 @@
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>547.8252218830993</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>86.31943126580316</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8534,25 +8534,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>372.2051051843581</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1027.220259954781</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8707,13 +8707,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>217.3512730059682</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,19 +8768,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>49.961349286924</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>189.2472225695928</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8792,7 +8792,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>324.3764525304035</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
@@ -8944,13 +8944,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>697.124756287453</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>618.848654609434</v>
@@ -9014,7 +9014,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>53.81684833958155</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9023,13 +9023,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,16 +9172,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
-        <v>492.8628464086332</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9260,10 +9260,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>699.2271871843856</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9418,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>362.1014486857561</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,13 +9482,13 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
@@ -9497,13 +9497,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>418.2396143276235</v>
+        <v>247.8590127659171</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q23" t="n">
-        <v>464.8736204150517</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9722,25 +9722,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>574.3586489309258</v>
       </c>
       <c r="M24" t="n">
-        <v>742.2139937908412</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9886,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>625.182225377852</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>164.7792732268216</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>164.7792732268216</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>723.1315272622221</v>
       </c>
       <c r="P32" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,19 +10433,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>227.5743145228559</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>299.8008876868062</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>774.1253005797566</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>653.6520906270367</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10913,19 +10913,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>446.9749947424826</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,13 +11062,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>360.2906876703342</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
@@ -11077,13 +11077,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,19 +11135,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>58.8530437382756</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11156,7 +11156,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>31.27739019491188</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11299,7 +11299,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>360.2906876703342</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
@@ -11308,13 +11308,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>763.430074865614</v>
       </c>
       <c r="O44" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11375,13 +11375,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>58.8530437382756</v>
       </c>
       <c r="K45" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>426.8993572042261</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11393,13 +11393,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>85.11443092147002</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>36.08601140789133</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>98.33049036689427</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>86.88529518525144</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>10.36255726705059</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>101.311294316797</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24147,7 +24147,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24414,10 +24414,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>57.82322685930616</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>21.11005397370334</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>216.0406006991457</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>21.11005397370334</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>143.2141170731777</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>137.8864645745644</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>68.15019490184623</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>187.651065044646</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>78.57303566567205</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>106.2588707428565</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>71.98949189919247</v>
       </c>
     </row>
     <row r="41">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>71.9894918991923</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>176.8643397471519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26031,13 +26031,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26073,10 +26073,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>160.2240614002188</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>662508.5502428836</v>
+        <v>662508.5502428837</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>662508.5502428836</v>
+        <v>662508.5502428837</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>662508.5502428834</v>
+        <v>662508.5502428836</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>662508.5502428837</v>
+        <v>662508.5502428836</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>662508.5502428837</v>
+        <v>662508.5502428836</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451393.0677086515</v>
+        <v>451393.0677086513</v>
       </c>
       <c r="C2" t="n">
-        <v>451393.0677086513</v>
+        <v>451393.0677086512</v>
       </c>
       <c r="D2" t="n">
         <v>451393.0677086514</v>
       </c>
       <c r="E2" t="n">
-        <v>435573.5624315218</v>
+        <v>435573.5624315215</v>
       </c>
       <c r="F2" t="n">
-        <v>435573.5624315216</v>
+        <v>435573.5624315217</v>
       </c>
       <c r="G2" t="n">
         <v>435573.5624315217</v>
@@ -26334,25 +26334,25 @@
         <v>435573.5624315215</v>
       </c>
       <c r="I2" t="n">
-        <v>435573.5624315217</v>
+        <v>435573.5624315218</v>
       </c>
       <c r="J2" t="n">
         <v>435573.5624315216</v>
       </c>
       <c r="K2" t="n">
+        <v>435573.5624315215</v>
+      </c>
+      <c r="L2" t="n">
+        <v>435573.5624315214</v>
+      </c>
+      <c r="M2" t="n">
         <v>435573.5624315217</v>
       </c>
-      <c r="L2" t="n">
-        <v>435573.5624315218</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>435573.5624315217</v>
+      </c>
+      <c r="O2" t="n">
         <v>435573.5624315215</v>
-      </c>
-      <c r="N2" t="n">
-        <v>435573.5624315213</v>
-      </c>
-      <c r="O2" t="n">
-        <v>435573.5624315214</v>
       </c>
       <c r="P2" t="n">
         <v>435573.5624315217</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695915</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361195</v>
+        <v>23406.83367361228</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566405</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.268580289</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701958</v>
+        <v>18646.60035701984</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219126.2750134968</v>
+        <v>219126.275013497</v>
       </c>
       <c r="C4" t="n">
         <v>208489.0552260627</v>
@@ -26432,13 +26432,13 @@
         <v>115328.9674438159</v>
       </c>
       <c r="G4" t="n">
+        <v>115328.9674438159</v>
+      </c>
+      <c r="H4" t="n">
+        <v>115328.9674438159</v>
+      </c>
+      <c r="I4" t="n">
         <v>115328.9674438158</v>
-      </c>
-      <c r="H4" t="n">
-        <v>115328.9674438158</v>
-      </c>
-      <c r="I4" t="n">
-        <v>115328.9674438159</v>
       </c>
       <c r="J4" t="n">
         <v>115328.9674438159</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.2228221613</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7100.873803401832</v>
+        <v>7100.873803401919</v>
       </c>
       <c r="C6" t="n">
-        <v>152050.9277715486</v>
+        <v>152050.9277715481</v>
       </c>
       <c r="D6" t="n">
-        <v>175457.7614451606</v>
+        <v>175457.7614451605</v>
       </c>
       <c r="E6" t="n">
-        <v>26755.17624263576</v>
+        <v>26704.14558045106</v>
       </c>
       <c r="F6" t="n">
-        <v>242494.5327992761</v>
+        <v>242443.5021370918</v>
       </c>
       <c r="G6" t="n">
-        <v>242494.5327992762</v>
+        <v>242443.5021370918</v>
       </c>
       <c r="H6" t="n">
-        <v>242494.5327992761</v>
+        <v>242443.5021370916</v>
       </c>
       <c r="I6" t="n">
-        <v>242494.5327992761</v>
+        <v>242443.5021370919</v>
       </c>
       <c r="J6" t="n">
-        <v>115917.264218987</v>
+        <v>115866.233556803</v>
       </c>
       <c r="K6" t="n">
-        <v>223847.9324422565</v>
+        <v>223796.9017800717</v>
       </c>
       <c r="L6" t="n">
-        <v>242494.5327992762</v>
+        <v>242443.5021370915</v>
       </c>
       <c r="M6" t="n">
-        <v>62430.66134410819</v>
+        <v>62379.63068192413</v>
       </c>
       <c r="N6" t="n">
-        <v>242494.5327992758</v>
+        <v>242443.5021370918</v>
       </c>
       <c r="O6" t="n">
-        <v>242494.5327992758</v>
+        <v>242443.5021370916</v>
       </c>
       <c r="P6" t="n">
-        <v>242494.5327992761</v>
+        <v>242443.5021370918</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539688</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539688</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162529</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539688</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162529</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539688</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162529</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27387,19 +27387,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>107.6276504895419</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>397.9469133430608</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>6.523832607421696</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>108.5452865762597</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>162.8640785093684</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27681,10 +27681,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>162.8640785093685</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>141.3777290182691</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>198.029129164074</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>350.5048792244487</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>272.3699127117746</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>188.0616599452731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-4.484950034982556e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28277,7 +28277,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30152,7 +30152,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -34707,22 +34707,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>483.7766911539688</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7766911539688</v>
+        <v>2.304553167390384</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539688</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>97.96403816098469</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,16 +34783,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="M3" t="n">
-        <v>300.2003557436942</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>483.7766911539688</v>
+        <v>300.2003557436962</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539688</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>199.6778317632445</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34874,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>193.0123962598446</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>48.74406945557187</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35017,7 +35017,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>349.6900184701286</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35111,7 +35111,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968705</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35184,16 +35184,16 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35254,25 +35254,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>349.6900184701286</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>989.7889970553492</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35427,13 +35427,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>29.35023495359066</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>167.9041943560511</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35573,7 +35573,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115399</v>
       </c>
       <c r="M13" t="n">
         <v>395.137166636617</v>
@@ -35652,7 +35652,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>286.0644100977806</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
@@ -35664,13 +35664,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>659.5493944772218</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>596.4494207761006</v>
@@ -35734,7 +35734,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>30.72006782725357</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,16 +35892,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
-        <v>455.4718870526091</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>677.4563459795569</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>82.84778796434657</v>
@@ -36044,7 +36044,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8157587937675</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36138,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>324.5260868755248</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>395.492576038645</v>
+        <v>225.1119744769386</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36296,7 +36296,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>293.534557496865</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
         <v>128.2829598391535</v>
@@ -36375,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q23" t="n">
-        <v>428.7489458104537</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36442,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="M24" t="n">
-        <v>719.1172132785132</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36606,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>142.264186512592</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>142.264186512592</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37083,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>685.740567906198</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>752.782272366215</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37481,7 +37481,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5345574968727</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
         <v>128.2829598391535</v>
@@ -37551,7 +37551,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>616.220827727605</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>424.2279564535041</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>324.5260868755249</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
@@ -37797,13 +37797,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>38.24192940494226</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>9.506548990083218</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -38019,7 +38019,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>324.5260868755249</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
@@ -38028,13 +38028,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="O44" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>38.24192940494226</v>
       </c>
       <c r="K45" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>404.3842704899966</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
